--- a/results/comparaison/WM/azimuth/max_raw_data.xlsx
+++ b/results/comparaison/WM/azimuth/max_raw_data.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CS7"/>
+  <dimension ref="A1:CW7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:97">
+    <row r="1" spans="1:101">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -661,8 +661,20 @@
       <c r="CS1" s="1">
         <v>95</v>
       </c>
+      <c r="CT1" s="1">
+        <v>96</v>
+      </c>
+      <c r="CU1" s="1">
+        <v>97</v>
+      </c>
+      <c r="CV1" s="1">
+        <v>98</v>
+      </c>
+      <c r="CW1" s="1">
+        <v>99</v>
+      </c>
     </row>
-    <row r="2" spans="1:97">
+    <row r="2" spans="1:101">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -670,34 +682,34 @@
         <v>9.050279329608941</v>
       </c>
       <c r="C2">
+        <v>69.38547486033519</v>
+      </c>
+      <c r="D2">
         <v>41.22905027932961</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>134.7486033519553</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>157.8770949720671</v>
       </c>
-      <c r="F2">
+      <c r="G2">
+        <v>101.5642458100559</v>
+      </c>
+      <c r="H2">
         <v>159.8882681564246</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>103.5754189944134</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>38.21229050279329</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>26.14525139664805</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>57.31843575418995</v>
-      </c>
-      <c r="K2">
-        <v>43.24022346368715</v>
-      </c>
-      <c r="L2">
-        <v>55.3072625698324</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -706,19 +718,19 @@
         <v>43.24022346368715</v>
       </c>
       <c r="O2">
+        <v>55.3072625698324</v>
+      </c>
+      <c r="P2">
+        <v>43.24022346368715</v>
+      </c>
+      <c r="Q2">
         <v>18.10055865921788</v>
       </c>
-      <c r="P2">
+      <c r="R2">
         <v>102.5698324022346</v>
       </c>
-      <c r="Q2">
-        <v>55.3072625698324</v>
-      </c>
-      <c r="R2">
-        <v>116.6480446927374</v>
-      </c>
       <c r="S2">
-        <v>25.13966480446928</v>
+        <v>47.26256983240224</v>
       </c>
       <c r="T2">
         <v>45.2513966480447</v>
@@ -742,259 +754,304 @@
         <v>51.28491620111732</v>
       </c>
       <c r="AA2">
-        <v>43.24022346368715</v>
+        <v>9.050279329608941</v>
       </c>
       <c r="AB2">
-        <v>54.30167597765363</v>
+        <v>56.31284916201118</v>
       </c>
       <c r="AC2">
-        <v>139.7765363128491</v>
+        <v>116.6480446927374</v>
       </c>
       <c r="AD2">
-        <v>154.8603351955307</v>
+        <v>96.53631284916202</v>
       </c>
       <c r="AE2">
-        <v>122.6815642458101</v>
+        <v>105.586592178771</v>
       </c>
       <c r="AF2">
-        <v>110.6145251396648</v>
+        <v>20.11173184357542</v>
       </c>
       <c r="AG2">
-        <v>51.28491620111732</v>
+        <v>131.731843575419</v>
       </c>
       <c r="AH2">
-        <v>105.586592178771</v>
+        <v>25.13966480446928</v>
       </c>
       <c r="AI2">
         <v>43.24022346368715</v>
       </c>
       <c r="AJ2">
+        <v>57.31843575418995</v>
+      </c>
+      <c r="AK2">
+        <v>122.6815642458101</v>
+      </c>
+      <c r="AL2">
+        <v>133.7430167597765</v>
+      </c>
+      <c r="AM2">
+        <v>110.6145251396648</v>
+      </c>
+      <c r="AN2">
+        <v>105.586592178771</v>
+      </c>
+      <c r="AO2">
         <v>121.6759776536313</v>
       </c>
-      <c r="AK2">
+      <c r="AP2">
         <v>42.23463687150839</v>
       </c>
-      <c r="AL2">
-        <v>116.6480446927374</v>
-      </c>
-      <c r="AM2">
-        <v>106.5921787709497</v>
-      </c>
-      <c r="AN2">
+      <c r="AQ2">
+        <v>42.23463687150839</v>
+      </c>
+      <c r="AR2">
+        <v>42.23463687150839</v>
+      </c>
+      <c r="AS2">
+        <v>122.6815642458101</v>
+      </c>
+      <c r="AT2">
+        <v>54.30167597765363</v>
+      </c>
+      <c r="AU2">
+        <v>36.20111731843576</v>
+      </c>
+      <c r="AV2">
+        <v>49.27374301675978</v>
+      </c>
+      <c r="AW2">
+        <v>138.7709497206704</v>
+      </c>
+      <c r="AX2">
+        <v>140.7821229050279</v>
+      </c>
+      <c r="AY2">
+        <v>139.7765363128491</v>
+      </c>
+      <c r="AZ2">
         <v>127.7094972067039</v>
       </c>
-      <c r="AO2">
-        <v>126.7039106145251</v>
-      </c>
-      <c r="AP2">
+      <c r="BA2">
+        <v>146.8156424581006</v>
+      </c>
+      <c r="BB2">
+        <v>143.7988826815643</v>
+      </c>
+      <c r="BC2">
+        <v>101.5642458100559</v>
+      </c>
+      <c r="BD2">
+        <v>100.5586592178771</v>
+      </c>
+      <c r="BE2">
         <v>103.5754189944134</v>
       </c>
-      <c r="AQ2">
-        <v>53.29608938547487</v>
-      </c>
-      <c r="AR2">
-        <v>47.26256983240224</v>
-      </c>
-      <c r="AS2">
-        <v>47.26256983240224</v>
-      </c>
-      <c r="AT2">
-        <v>96.53631284916202</v>
-      </c>
-      <c r="AU2">
+      <c r="BF2">
+        <v>141.7877094972067</v>
+      </c>
+      <c r="BG2">
+        <v>108.6033519553073</v>
+      </c>
+      <c r="BH2">
+        <v>168.9385474860335</v>
+      </c>
+      <c r="BI2">
+        <v>92.51396648044692</v>
+      </c>
+      <c r="BJ2">
+        <v>104.5810055865922</v>
+      </c>
+      <c r="BK2">
+        <v>132.7374301675978</v>
+      </c>
+      <c r="BL2">
+        <v>136.7597765363129</v>
+      </c>
+      <c r="BM2">
+        <v>104.5810055865922</v>
+      </c>
+      <c r="BN2">
+        <v>101.5642458100559</v>
+      </c>
+      <c r="BO2">
+        <v>121.6759776536313</v>
+      </c>
+      <c r="BP2">
+        <v>176.9832402234637</v>
+      </c>
+      <c r="BQ2">
+        <v>83.463687150838</v>
+      </c>
+      <c r="BR2">
+        <v>128.7150837988827</v>
+      </c>
+      <c r="BS2">
+        <v>69.38547486033519</v>
+      </c>
+      <c r="BT2">
+        <v>78.43575418994413</v>
+      </c>
+      <c r="BU2">
+        <v>70.39106145251397</v>
+      </c>
+      <c r="BV2">
+        <v>91.50837988826817</v>
+      </c>
+      <c r="BW2">
+        <v>49.27374301675978</v>
+      </c>
+      <c r="BX2">
+        <v>99.55307262569832</v>
+      </c>
+      <c r="BY2">
+        <v>168.9385474860335</v>
+      </c>
+      <c r="BZ2">
+        <v>43.24022346368715</v>
+      </c>
+      <c r="CA2">
+        <v>139.7765363128491</v>
+      </c>
+      <c r="CB2">
+        <v>52.29050279329609</v>
+      </c>
+      <c r="CC2">
+        <v>34.18994413407822</v>
+      </c>
+      <c r="CD2">
+        <v>5.027932960893855</v>
+      </c>
+      <c r="CE2">
+        <v>44.24581005586592</v>
+      </c>
+      <c r="CF2">
+        <v>1.005586592178771</v>
+      </c>
+      <c r="CG2">
+        <v>54.30167597765363</v>
+      </c>
+      <c r="CH2">
+        <v>63.35195530726257</v>
+      </c>
+      <c r="CI2">
+        <v>175.9776536312849</v>
+      </c>
+      <c r="CJ2">
+        <v>0</v>
+      </c>
+      <c r="CK2">
+        <v>9.050279329608941</v>
+      </c>
+      <c r="CL2">
         <v>20.11173184357542</v>
       </c>
-      <c r="AV2">
-        <v>131.731843575419</v>
-      </c>
-      <c r="AW2">
-        <v>25.13966480446928</v>
-      </c>
-      <c r="AX2">
-        <v>43.24022346368715</v>
-      </c>
-      <c r="AY2">
-        <v>108.6033519553073</v>
-      </c>
-      <c r="AZ2">
-        <v>92.51396648044692</v>
-      </c>
-      <c r="BA2">
-        <v>136.7597765363129</v>
-      </c>
-      <c r="BB2">
-        <v>79.44134078212291</v>
-      </c>
-      <c r="BC2">
-        <v>72.40223463687151</v>
-      </c>
-      <c r="BD2">
-        <v>141.7877094972067</v>
-      </c>
-      <c r="BE2">
-        <v>100.5586592178771</v>
-      </c>
-      <c r="BF2">
-        <v>174.9720670391062</v>
-      </c>
-      <c r="BG2">
-        <v>98.54748603351956</v>
-      </c>
-      <c r="BH2">
-        <v>138.7709497206704</v>
-      </c>
-      <c r="BI2">
-        <v>140.7821229050279</v>
-      </c>
-      <c r="BJ2">
-        <v>109.608938547486</v>
-      </c>
-      <c r="BK2">
-        <v>151.8435754189944</v>
-      </c>
-      <c r="BL2">
-        <v>105.586592178771</v>
-      </c>
-      <c r="BM2">
+      <c r="CM2">
+        <v>46.25698324022346</v>
+      </c>
+      <c r="CN2">
+        <v>63.35195530726257</v>
+      </c>
+      <c r="CO2">
+        <v>85.47486033519553</v>
+      </c>
+      <c r="CP2">
+        <v>9.050279329608941</v>
+      </c>
+      <c r="CQ2">
+        <v>6.033519553072626</v>
+      </c>
+      <c r="CR2">
+        <v>171.9553072625698</v>
+      </c>
+      <c r="CS2">
+        <v>41.22905027932961</v>
+      </c>
+      <c r="CT2">
+        <v>67.37430167597766</v>
+      </c>
+      <c r="CU2">
         <v>103.5754189944134</v>
       </c>
-      <c r="BN2">
-        <v>109.608938547486</v>
-      </c>
-      <c r="BO2">
-        <v>107.5977653631285</v>
-      </c>
-      <c r="BP2">
-        <v>116.6480446927374</v>
-      </c>
-      <c r="BQ2">
-        <v>170.9497206703911</v>
-      </c>
-      <c r="BR2">
-        <v>101.5642458100559</v>
-      </c>
-      <c r="BS2">
-        <v>131.731843575419</v>
-      </c>
-      <c r="BT2">
-        <v>147.8212290502793</v>
-      </c>
-      <c r="BU2">
-        <v>35.19553072625698</v>
-      </c>
-      <c r="BV2">
-        <v>148.8268156424581</v>
-      </c>
-      <c r="BW2">
-        <v>102.5698324022346</v>
-      </c>
-      <c r="BX2">
-        <v>104.5810055865922</v>
-      </c>
-      <c r="BY2">
-        <v>149.8324022346369</v>
-      </c>
-      <c r="BZ2">
-        <v>19.10614525139665</v>
-      </c>
-      <c r="CA2">
-        <v>50.27932960893855</v>
-      </c>
-      <c r="CB2">
-        <v>27.15083798882681</v>
-      </c>
-      <c r="CC2">
-        <v>162.9050279329609</v>
-      </c>
-      <c r="CD2">
-        <v>130.7262569832402</v>
-      </c>
-      <c r="CE2">
+      <c r="CV2">
+        <v>173.9664804469274</v>
+      </c>
+      <c r="CW2">
         <v>57.31843575418995</v>
       </c>
-      <c r="CF2">
-        <v>178.9944134078212</v>
-      </c>
-      <c r="CG2">
-        <v>162.9050279329609</v>
-      </c>
-      <c r="CH2">
-        <v>131.731843575419</v>
-      </c>
-      <c r="CI2">
-        <v>154.8603351955307</v>
-      </c>
-      <c r="CJ2">
-        <v>50.27932960893855</v>
-      </c>
-      <c r="CK2">
-        <v>121.6759776536313</v>
-      </c>
-      <c r="CL2">
-        <v>54.30167597765363</v>
-      </c>
-      <c r="CM2">
-        <v>64.35754189944134</v>
-      </c>
-      <c r="CN2">
-        <v>7.039106145251397</v>
-      </c>
-      <c r="CO2">
-        <v>149.8324022346369</v>
-      </c>
-      <c r="CP2">
-        <v>170.9497206703911</v>
-      </c>
-      <c r="CQ2">
-        <v>63.35195530726257</v>
-      </c>
-      <c r="CR2">
-        <v>63.35195530726257</v>
-      </c>
-      <c r="CS2">
-        <v>171.9553072625698</v>
-      </c>
     </row>
-    <row r="3" spans="1:97">
+    <row r="3" spans="1:101">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
         <v>177.9888268156424</v>
       </c>
+      <c r="C3">
+        <v>41.22905027932961</v>
+      </c>
+      <c r="D3">
+        <v>106.5921787709497</v>
+      </c>
       <c r="E3">
+        <v>149.8324022346369</v>
+      </c>
+      <c r="F3">
         <v>161.8994413407821</v>
       </c>
-      <c r="F3">
+      <c r="G3">
+        <v>146.8156424581006</v>
+      </c>
+      <c r="H3">
         <v>157.8770949720671</v>
       </c>
-      <c r="H3">
+      <c r="I3">
+        <v>137.7653631284916</v>
+      </c>
+      <c r="J3">
         <v>22.12290502793296</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>4.022346368715084</v>
       </c>
-      <c r="K3">
-        <v>172.9608938547486</v>
+      <c r="L3">
+        <v>67.37430167597766</v>
       </c>
       <c r="M3">
         <v>3.016759776536313</v>
       </c>
       <c r="N3">
+        <v>172.9608938547486</v>
+      </c>
+      <c r="O3">
+        <v>60.33519553072626</v>
+      </c>
+      <c r="P3">
         <v>35.19553072625698</v>
       </c>
-      <c r="O3">
+      <c r="Q3">
         <v>168.9385474860335</v>
       </c>
-      <c r="P3">
+      <c r="R3">
         <v>75.41899441340783</v>
       </c>
       <c r="S3">
-        <v>149.8324022346369</v>
+        <v>168.9385474860335</v>
+      </c>
+      <c r="T3">
+        <v>24.1340782122905</v>
+      </c>
+      <c r="U3">
+        <v>61.34078212290503</v>
+      </c>
+      <c r="V3">
+        <v>79.44134078212291</v>
       </c>
       <c r="W3">
         <v>48.26815642458101</v>
       </c>
+      <c r="X3">
+        <v>53.29608938547487</v>
+      </c>
       <c r="Y3">
         <v>16.08938547486034</v>
       </c>
@@ -1002,350 +1059,842 @@
         <v>40.22346368715084</v>
       </c>
       <c r="AA3">
-        <v>17.09497206703911</v>
+        <v>148.8268156424581</v>
       </c>
       <c r="AB3">
+        <v>63.35195530726257</v>
+      </c>
+      <c r="AC3">
+        <v>113.6312849162011</v>
+      </c>
+      <c r="AD3">
+        <v>162.9050279329609</v>
+      </c>
+      <c r="AF3">
+        <v>15.08379888268156</v>
+      </c>
+      <c r="AG3">
+        <v>141.7877094972067</v>
+      </c>
+      <c r="AH3">
+        <v>20.11173184357542</v>
+      </c>
+      <c r="AI3">
+        <v>39.21787709497207</v>
+      </c>
+      <c r="AJ3">
         <v>55.3072625698324</v>
       </c>
+      <c r="AL3">
+        <v>133.7430167597765</v>
+      </c>
+      <c r="AM3">
+        <v>100.5586592178771</v>
+      </c>
+      <c r="AN3">
+        <v>116.6480446927374</v>
+      </c>
+      <c r="AO3">
+        <v>124.6927374301676</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
       <c r="AQ3">
-        <v>52.29050279329609</v>
+        <v>44.24581005586592</v>
       </c>
       <c r="AR3">
-        <v>41.22905027932961</v>
+        <v>50.27932960893855</v>
       </c>
       <c r="AS3">
-        <v>44.24581005586592</v>
+        <v>123.6871508379888</v>
       </c>
       <c r="AT3">
-        <v>162.9050279329609</v>
+        <v>60.33519553072626</v>
       </c>
       <c r="AU3">
         <v>15.08379888268156</v>
       </c>
+      <c r="AV3">
+        <v>52.29050279329609</v>
+      </c>
       <c r="AX3">
-        <v>39.21787709497207</v>
+        <v>139.7765363128491</v>
+      </c>
+      <c r="AY3">
+        <v>138.7709497206704</v>
+      </c>
+      <c r="AZ3">
+        <v>104.5810055865922</v>
+      </c>
+      <c r="BA3">
+        <v>149.8324022346369</v>
       </c>
       <c r="BB3">
+        <v>143.7988826815643</v>
+      </c>
+      <c r="BC3">
+        <v>101.5642458100559</v>
+      </c>
+      <c r="BD3">
+        <v>97.5418994413408</v>
+      </c>
+      <c r="BE3">
+        <v>103.5754189944134</v>
+      </c>
+      <c r="BF3">
+        <v>147.8212290502793</v>
+      </c>
+      <c r="BG3">
+        <v>116.6480446927374</v>
+      </c>
+      <c r="BH3">
+        <v>140.7821229050279</v>
+      </c>
+      <c r="BI3">
+        <v>93.5195530726257</v>
+      </c>
+      <c r="BJ3">
+        <v>98.54748603351956</v>
+      </c>
+      <c r="BK3">
+        <v>125.6983240223464</v>
+      </c>
+      <c r="BM3">
+        <v>99.55307262569832</v>
+      </c>
+      <c r="BN3">
+        <v>95.53072625698324</v>
+      </c>
+      <c r="BO3">
+        <v>108.6033519553073</v>
+      </c>
+      <c r="BP3">
+        <v>98.54748603351956</v>
+      </c>
+      <c r="BQ3">
+        <v>93.5195530726257</v>
+      </c>
+      <c r="BR3">
+        <v>133.7430167597765</v>
+      </c>
+      <c r="BS3">
+        <v>150.8379888268157</v>
+      </c>
+      <c r="BT3">
+        <v>81.45251396648045</v>
+      </c>
+      <c r="BU3">
+        <v>71.39664804469274</v>
+      </c>
+      <c r="BV3">
+        <v>100.5586592178771</v>
+      </c>
+      <c r="BW3">
         <v>67.37430167597766</v>
       </c>
-      <c r="BC3">
-        <v>77.43016759776536</v>
-      </c>
-      <c r="BF3">
+      <c r="BX3">
+        <v>96.53631284916202</v>
+      </c>
+      <c r="BY3">
         <v>166.927374301676</v>
       </c>
-      <c r="BI3">
-        <v>140.7821229050279</v>
-      </c>
-      <c r="BJ3">
-        <v>99.55307262569832</v>
-      </c>
-      <c r="BK3">
-        <v>62.3463687150838</v>
-      </c>
-      <c r="BO3">
+      <c r="BZ3">
         <v>71.39664804469274</v>
       </c>
-      <c r="BP3">
-        <v>109.608938547486</v>
-      </c>
-      <c r="BQ3">
-        <v>140.7821229050279</v>
-      </c>
-      <c r="BR3">
-        <v>103.5754189944134</v>
-      </c>
-      <c r="BS3">
-        <v>129.7206703910614</v>
-      </c>
-      <c r="BU3">
-        <v>75.41899441340783</v>
-      </c>
-      <c r="BV3">
-        <v>146.8156424581006</v>
+      <c r="CA3">
+        <v>130.7262569832402</v>
+      </c>
+      <c r="CB3">
+        <v>57.31843575418995</v>
+      </c>
+      <c r="CC3">
+        <v>11.06145251396648</v>
+      </c>
+      <c r="CD3">
+        <v>97.5418994413408</v>
+      </c>
+      <c r="CE3">
+        <v>26.14525139664805</v>
+      </c>
+      <c r="CF3">
+        <v>7.039106145251397</v>
       </c>
       <c r="CG3">
+        <v>55.3072625698324</v>
+      </c>
+      <c r="CH3">
+        <v>112.6256983240224</v>
+      </c>
+      <c r="CI3">
         <v>170.9497206703911</v>
       </c>
       <c r="CK3">
-        <v>116.6480446927374</v>
+        <v>176.9832402234637</v>
+      </c>
+      <c r="CL3">
+        <v>48.26815642458101</v>
+      </c>
+      <c r="CM3">
+        <v>31.1731843575419</v>
       </c>
       <c r="CN3">
-        <v>30.16759776536313</v>
+        <v>16.08938547486034</v>
+      </c>
+      <c r="CO3">
+        <v>67.37430167597766</v>
+      </c>
+      <c r="CP3">
+        <v>176.9832402234637</v>
+      </c>
+      <c r="CQ3">
+        <v>11.06145251396648</v>
+      </c>
+      <c r="CR3">
+        <v>173.9664804469274</v>
+      </c>
+      <c r="CS3">
+        <v>53.29608938547487</v>
+      </c>
+      <c r="CT3">
+        <v>71.39664804469274</v>
+      </c>
+      <c r="CU3">
+        <v>152.8491620111732</v>
+      </c>
+      <c r="CV3">
+        <v>171.9553072625698</v>
       </c>
     </row>
-    <row r="4" spans="1:97">
+    <row r="4" spans="1:101">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
         <v>5.027932960893855</v>
       </c>
+      <c r="C4">
+        <v>67.37430167597766</v>
+      </c>
+      <c r="D4">
+        <v>70.39106145251397</v>
+      </c>
       <c r="E4">
+        <v>129.7206703910614</v>
+      </c>
+      <c r="F4">
         <v>48.26815642458101</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>153.854748603352</v>
       </c>
-      <c r="H4">
+      <c r="I4">
+        <v>125.6983240223464</v>
+      </c>
+      <c r="J4">
         <v>26.14525139664805</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>9.050279329608941</v>
       </c>
-      <c r="K4">
-        <v>156.8715083798883</v>
+      <c r="L4">
+        <v>69.38547486033519</v>
       </c>
       <c r="M4">
         <v>174.9720670391062</v>
       </c>
       <c r="N4">
+        <v>156.8715083798883</v>
+      </c>
+      <c r="O4">
+        <v>64.35754189944134</v>
+      </c>
+      <c r="P4">
         <v>46.25698324022346</v>
       </c>
-      <c r="O4">
+      <c r="Q4">
         <v>168.9385474860335</v>
       </c>
-      <c r="P4">
+      <c r="R4">
         <v>64.35754189944134</v>
       </c>
       <c r="S4">
-        <v>150.8379888268157</v>
+        <v>47.26256983240224</v>
+      </c>
+      <c r="T4">
+        <v>49.27374301675978</v>
+      </c>
+      <c r="U4">
+        <v>72.40223463687151</v>
+      </c>
+      <c r="V4">
+        <v>84.46927374301677</v>
       </c>
       <c r="W4">
         <v>46.25698324022346</v>
       </c>
+      <c r="X4">
+        <v>53.29608938547487</v>
+      </c>
       <c r="Y4">
         <v>22.12290502793296</v>
       </c>
       <c r="Z4">
         <v>46.25698324022346</v>
       </c>
+      <c r="AA4">
+        <v>145.8100558659218</v>
+      </c>
       <c r="AB4">
-        <v>53.29608938547487</v>
+        <v>57.31843575418995</v>
+      </c>
+      <c r="AC4">
+        <v>131.731843575419</v>
+      </c>
+      <c r="AD4">
+        <v>142.7932960893855</v>
+      </c>
+      <c r="AF4">
+        <v>1.005586592178771</v>
+      </c>
+      <c r="AG4">
+        <v>144.804469273743</v>
       </c>
       <c r="AH4">
+        <v>162.9050279329609</v>
+      </c>
+      <c r="AI4">
+        <v>42.23463687150839</v>
+      </c>
+      <c r="AJ4">
+        <v>61.34078212290503</v>
+      </c>
+      <c r="AL4">
+        <v>138.7709497206704</v>
+      </c>
+      <c r="AM4">
+        <v>115.6424581005587</v>
+      </c>
+      <c r="AN4">
         <v>124.6927374301676</v>
       </c>
-      <c r="AJ4">
+      <c r="AO4">
         <v>138.7709497206704</v>
       </c>
-      <c r="AK4">
+      <c r="AP4">
+        <v>178.9944134078212</v>
+      </c>
+      <c r="AQ4">
+        <v>47.26256983240224</v>
+      </c>
+      <c r="AR4">
         <v>62.3463687150838</v>
       </c>
-      <c r="AM4">
-        <v>125.6983240223464</v>
-      </c>
-      <c r="AQ4">
-        <v>57.31843575418995</v>
-      </c>
-      <c r="AR4">
-        <v>40.22346368715084</v>
-      </c>
-      <c r="AS4">
-        <v>46.25698324022346</v>
-      </c>
       <c r="AT4">
-        <v>142.7932960893855</v>
+        <v>64.35754189944134</v>
       </c>
       <c r="AU4">
         <v>1.005586592178771</v>
       </c>
-      <c r="AX4">
-        <v>42.23463687150839</v>
+      <c r="AV4">
+        <v>55.3072625698324</v>
+      </c>
+      <c r="AZ4">
+        <v>116.6480446927374</v>
+      </c>
+      <c r="BA4">
+        <v>152.8491620111732</v>
       </c>
       <c r="BB4">
-        <v>63.35195530726257</v>
+        <v>68.37988826815644</v>
       </c>
       <c r="BC4">
-        <v>69.38547486033519</v>
+        <v>97.5418994413408</v>
+      </c>
+      <c r="BD4">
+        <v>91.50837988826817</v>
+      </c>
+      <c r="BE4">
+        <v>111.6201117318436</v>
+      </c>
+      <c r="BF4">
+        <v>131.731843575419</v>
+      </c>
+      <c r="BG4">
+        <v>103.5754189944134</v>
+      </c>
+      <c r="BH4">
+        <v>132.7374301675978</v>
       </c>
       <c r="BI4">
-        <v>132.7374301675978</v>
+        <v>93.5195530726257</v>
       </c>
       <c r="BJ4">
-        <v>98.54748603351956</v>
+        <v>95.53072625698324</v>
       </c>
       <c r="BK4">
-        <v>65.36312849162012</v>
+        <v>131.731843575419</v>
+      </c>
+      <c r="BL4">
+        <v>117.6536312849162</v>
+      </c>
+      <c r="BM4">
+        <v>92.51396648044692</v>
+      </c>
+      <c r="BN4">
+        <v>96.53631284916202</v>
+      </c>
+      <c r="BO4">
+        <v>107.5977653631285</v>
       </c>
       <c r="BP4">
-        <v>105.586592178771</v>
-      </c>
-      <c r="BS4">
-        <v>115.6424581005587</v>
+        <v>112.6256983240224</v>
+      </c>
+      <c r="BQ4">
+        <v>85.47486033519553</v>
+      </c>
+      <c r="BR4">
+        <v>119.6648044692738</v>
+      </c>
+      <c r="BT4">
+        <v>78.43575418994413</v>
       </c>
       <c r="BU4">
-        <v>78.43575418994413</v>
+        <v>72.40223463687151</v>
       </c>
       <c r="BV4">
-        <v>139.7765363128491</v>
+        <v>96.53631284916202</v>
+      </c>
+      <c r="BW4">
+        <v>71.39664804469274</v>
+      </c>
+      <c r="BX4">
+        <v>91.50837988826817</v>
+      </c>
+      <c r="BY4">
+        <v>178.9944134078212</v>
+      </c>
+      <c r="BZ4">
+        <v>61.34078212290503</v>
+      </c>
+      <c r="CA4">
+        <v>127.7094972067039</v>
+      </c>
+      <c r="CB4">
+        <v>57.31843575418995</v>
+      </c>
+      <c r="CC4">
+        <v>15.08379888268156</v>
+      </c>
+      <c r="CD4">
+        <v>81.45251396648045</v>
+      </c>
+      <c r="CE4">
+        <v>23.12849162011173</v>
       </c>
       <c r="CF4">
-        <v>13.07262569832402</v>
+        <v>4.022346368715084</v>
+      </c>
+      <c r="CG4">
+        <v>54.30167597765363</v>
       </c>
       <c r="CH4">
-        <v>111.6201117318436</v>
+        <v>96.53631284916202</v>
+      </c>
+      <c r="CI4">
+        <v>168.9385474860335</v>
       </c>
       <c r="CK4">
-        <v>109.608938547486</v>
+        <v>7.039106145251397</v>
+      </c>
+      <c r="CL4">
+        <v>43.24022346368715</v>
+      </c>
+      <c r="CM4">
+        <v>32.17877094972067</v>
       </c>
       <c r="CN4">
-        <v>27.15083798882681</v>
+        <v>39.21787709497207</v>
+      </c>
+      <c r="CO4">
+        <v>72.40223463687151</v>
+      </c>
+      <c r="CP4">
+        <v>172.9608938547486</v>
+      </c>
+      <c r="CQ4">
+        <v>15.08379888268156</v>
+      </c>
+      <c r="CR4">
+        <v>167.9329608938548</v>
+      </c>
+      <c r="CS4">
+        <v>57.31843575418995</v>
+      </c>
+      <c r="CT4">
+        <v>56.31284916201118</v>
+      </c>
+      <c r="CU4">
+        <v>12.06703910614525</v>
+      </c>
+      <c r="CV4">
+        <v>160.8938547486034</v>
+      </c>
+      <c r="CW4">
+        <v>60.33519553072626</v>
       </c>
     </row>
-    <row r="5" spans="1:97">
+    <row r="5" spans="1:101">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
         <v>10.05586592178771</v>
       </c>
+      <c r="C5">
+        <v>74.41340782122906</v>
+      </c>
       <c r="D5">
+        <v>100.5586592178771</v>
+      </c>
+      <c r="E5">
         <v>132.7374301675978</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>154.8603351955307</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>141.7877094972067</v>
       </c>
-      <c r="H5">
+      <c r="I5">
+        <v>147.8212290502793</v>
+      </c>
+      <c r="J5">
         <v>36.20111731843576</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>176.9832402234637</v>
       </c>
-      <c r="K5">
-        <v>164.9162011173185</v>
+      <c r="L5">
+        <v>61.34078212290503</v>
       </c>
       <c r="M5">
         <v>163.9106145251397</v>
       </c>
       <c r="N5">
+        <v>164.9162011173185</v>
+      </c>
+      <c r="O5">
+        <v>66.36871508379889</v>
+      </c>
+      <c r="P5">
         <v>38.21229050279329</v>
       </c>
-      <c r="O5">
+      <c r="Q5">
         <v>167.9329608938548</v>
       </c>
-      <c r="P5">
+      <c r="R5">
         <v>65.36312849162012</v>
       </c>
       <c r="S5">
-        <v>148.8268156424581</v>
+        <v>158.8826815642458</v>
+      </c>
+      <c r="T5">
+        <v>25.13966480446928</v>
+      </c>
+      <c r="U5">
+        <v>73.40782122905028</v>
+      </c>
+      <c r="V5">
+        <v>90.50279329608939</v>
       </c>
       <c r="W5">
         <v>41.22905027932961</v>
       </c>
+      <c r="X5">
+        <v>50.27932960893855</v>
+      </c>
       <c r="Y5">
         <v>28.15642458100559</v>
       </c>
       <c r="Z5">
         <v>51.28491620111732</v>
       </c>
+      <c r="AA5">
+        <v>153.854748603352</v>
+      </c>
       <c r="AB5">
-        <v>54.30167597765363</v>
+        <v>55.3072625698324</v>
+      </c>
+      <c r="AC5">
+        <v>125.6983240223464</v>
+      </c>
+      <c r="AD5">
+        <v>33.18435754189944</v>
+      </c>
+      <c r="AF5">
+        <v>18.10055865921788</v>
+      </c>
+      <c r="AG5">
+        <v>145.8100558659218</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>36.20111731843576</v>
+      </c>
+      <c r="AJ5">
+        <v>56.31284916201118</v>
+      </c>
+      <c r="AL5">
+        <v>142.7932960893855</v>
+      </c>
+      <c r="AM5">
+        <v>117.6536312849162</v>
+      </c>
+      <c r="AN5">
+        <v>128.7150837988827</v>
+      </c>
+      <c r="AO5">
+        <v>133.7430167597765</v>
+      </c>
+      <c r="AP5">
+        <v>14.07821229050279</v>
       </c>
       <c r="AQ5">
-        <v>52.29050279329609</v>
+        <v>46.25698324022346</v>
       </c>
       <c r="AR5">
-        <v>46.25698324022346</v>
+        <v>55.3072625698324</v>
       </c>
       <c r="AS5">
-        <v>47.26256983240224</v>
+        <v>142.7932960893855</v>
       </c>
       <c r="AT5">
+        <v>57.31843575418995</v>
+      </c>
+      <c r="AU5">
+        <v>27.15083798882681</v>
+      </c>
+      <c r="AV5">
+        <v>51.28491620111732</v>
+      </c>
+      <c r="AY5">
+        <v>142.7932960893855</v>
+      </c>
+      <c r="AZ5">
+        <v>125.6983240223464</v>
+      </c>
+      <c r="BA5">
+        <v>155.8659217877095</v>
+      </c>
+      <c r="BB5">
+        <v>141.7877094972067</v>
+      </c>
+      <c r="BC5">
+        <v>101.5642458100559</v>
+      </c>
+      <c r="BD5">
+        <v>96.53631284916202</v>
+      </c>
+      <c r="BE5">
+        <v>112.6256983240224</v>
+      </c>
+      <c r="BF5">
+        <v>143.7988826815643</v>
+      </c>
+      <c r="BG5">
+        <v>96.53631284916202</v>
+      </c>
+      <c r="BH5">
+        <v>141.7877094972067</v>
+      </c>
+      <c r="BI5">
+        <v>89.49720670391062</v>
+      </c>
+      <c r="BJ5">
+        <v>97.5418994413408</v>
+      </c>
+      <c r="BK5">
+        <v>132.7374301675978</v>
+      </c>
+      <c r="BM5">
+        <v>96.53631284916202</v>
+      </c>
+      <c r="BN5">
+        <v>119.6648044692738</v>
+      </c>
+      <c r="BO5">
+        <v>127.7094972067039</v>
+      </c>
+      <c r="BP5">
+        <v>137.7653631284916</v>
+      </c>
+      <c r="BQ5">
+        <v>85.47486033519553</v>
+      </c>
+      <c r="BR5">
+        <v>126.7039106145251</v>
+      </c>
+      <c r="BT5">
+        <v>82.45810055865923</v>
+      </c>
+      <c r="BU5">
+        <v>71.39664804469274</v>
+      </c>
+      <c r="BV5">
+        <v>96.53631284916202</v>
+      </c>
+      <c r="BW5">
+        <v>148.8268156424581</v>
+      </c>
+      <c r="BX5">
+        <v>84.46927374301677</v>
+      </c>
+      <c r="BY5">
+        <v>170.9497206703911</v>
+      </c>
+      <c r="BZ5">
+        <v>62.3463687150838</v>
+      </c>
+      <c r="CA5">
+        <v>128.7150837988827</v>
+      </c>
+      <c r="CB5">
+        <v>49.27374301675978</v>
+      </c>
+      <c r="CC5">
+        <v>40.22346368715084</v>
+      </c>
+      <c r="CD5">
+        <v>10.05586592178771</v>
+      </c>
+      <c r="CE5">
+        <v>177.9888268156424</v>
+      </c>
+      <c r="CF5">
+        <v>3.016759776536313</v>
+      </c>
+      <c r="CG5">
         <v>33.18435754189944</v>
       </c>
-      <c r="AU5">
+      <c r="CH5">
+        <v>114.6368715083799</v>
+      </c>
+      <c r="CI5">
+        <v>166.927374301676</v>
+      </c>
+      <c r="CK5">
+        <v>0</v>
+      </c>
+      <c r="CL5">
         <v>18.10055865921788</v>
       </c>
-      <c r="AX5">
-        <v>36.20111731843576</v>
-      </c>
-      <c r="BB5">
-        <v>59.32960893854749</v>
-      </c>
-      <c r="BC5">
-        <v>71.39664804469274</v>
-      </c>
-      <c r="BE5">
-        <v>88.49162011173185</v>
-      </c>
-      <c r="BI5">
-        <v>144.804469273743</v>
-      </c>
-      <c r="BK5">
-        <v>146.8156424581006</v>
-      </c>
-      <c r="BP5">
-        <v>113.6312849162011</v>
-      </c>
-      <c r="BS5">
-        <v>122.6815642458101</v>
-      </c>
-      <c r="BU5">
-        <v>39.21787709497207</v>
-      </c>
-      <c r="BV5">
-        <v>146.8156424581006</v>
-      </c>
-      <c r="BZ5">
-        <v>158.8826815642458</v>
-      </c>
-      <c r="CC5">
+      <c r="CM5">
+        <v>20.11173184357542</v>
+      </c>
+      <c r="CN5">
+        <v>15.08379888268156</v>
+      </c>
+      <c r="CO5">
+        <v>74.41340782122906</v>
+      </c>
+      <c r="CP5">
+        <v>173.9664804469274</v>
+      </c>
+      <c r="CQ5">
+        <v>8.044692737430168</v>
+      </c>
+      <c r="CR5">
+        <v>170.9497206703911</v>
+      </c>
+      <c r="CS5">
+        <v>50.27932960893855</v>
+      </c>
+      <c r="CT5">
+        <v>56.31284916201118</v>
+      </c>
+      <c r="CU5">
+        <v>2.011173184357542</v>
+      </c>
+      <c r="CV5">
         <v>168.9385474860335</v>
       </c>
-      <c r="CH5">
-        <v>131.731843575419</v>
-      </c>
-      <c r="CK5">
-        <v>128.7150837988827</v>
-      </c>
-      <c r="CP5">
-        <v>163.9106145251397</v>
-      </c>
-      <c r="CS5">
-        <v>170.9497206703911</v>
+      <c r="CW5">
+        <v>58.32402234636872</v>
       </c>
     </row>
-    <row r="6" spans="1:97">
+    <row r="6" spans="1:101">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
         <v>19.10614525139665</v>
       </c>
+      <c r="C6">
+        <v>65.36312849162012</v>
+      </c>
+      <c r="D6">
+        <v>68.37988826815644</v>
+      </c>
       <c r="E6">
+        <v>125.6983240223464</v>
+      </c>
+      <c r="F6">
         <v>44.24581005586592</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>146.8156424581006</v>
       </c>
-      <c r="H6">
+      <c r="I6">
+        <v>117.6536312849162</v>
+      </c>
+      <c r="J6">
         <v>33.18435754189944</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>0</v>
       </c>
-      <c r="K6">
-        <v>3.016759776536313</v>
+      <c r="L6">
+        <v>69.38547486033519</v>
       </c>
       <c r="M6">
         <v>163.9106145251397</v>
       </c>
       <c r="N6">
+        <v>3.016759776536313</v>
+      </c>
+      <c r="O6">
+        <v>69.38547486033519</v>
+      </c>
+      <c r="P6">
         <v>46.25698324022346</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
+        <v>173.9664804469274</v>
+      </c>
+      <c r="R6">
         <v>55.3072625698324</v>
       </c>
       <c r="S6">
-        <v>57.31843575418995</v>
+        <v>1.005586592178771</v>
+      </c>
+      <c r="T6">
+        <v>51.28491620111732</v>
+      </c>
+      <c r="U6">
+        <v>74.41340782122906</v>
+      </c>
+      <c r="V6">
+        <v>91.50837988826817</v>
       </c>
       <c r="W6">
         <v>49.27374301675978</v>
       </c>
+      <c r="X6">
+        <v>66.36871508379889</v>
+      </c>
       <c r="Y6">
         <v>36.20111731843576</v>
       </c>
@@ -1353,204 +1902,513 @@
         <v>44.24581005586592</v>
       </c>
       <c r="AA6">
-        <v>173.9664804469274</v>
+        <v>152.8491620111732</v>
       </c>
       <c r="AB6">
-        <v>57.31843575418995</v>
+        <v>63.35195530726257</v>
+      </c>
+      <c r="AC6">
+        <v>119.6648044692738</v>
+      </c>
+      <c r="AD6">
+        <v>18.10055865921788</v>
+      </c>
+      <c r="AF6">
+        <v>39.21787709497207</v>
+      </c>
+      <c r="AG6">
+        <v>136.7597765363129</v>
+      </c>
+      <c r="AH6">
+        <v>30.16759776536313</v>
+      </c>
+      <c r="AI6">
+        <v>29.16201117318436</v>
+      </c>
+      <c r="AJ6">
+        <v>59.32960893854749</v>
+      </c>
+      <c r="AK6">
+        <v>139.7765363128491</v>
+      </c>
+      <c r="AL6">
+        <v>138.7709497206704</v>
+      </c>
+      <c r="AM6">
+        <v>113.6312849162011</v>
+      </c>
+      <c r="AN6">
+        <v>102.5698324022346</v>
+      </c>
+      <c r="AO6">
+        <v>124.6927374301676</v>
+      </c>
+      <c r="AP6">
+        <v>167.9329608938548</v>
       </c>
       <c r="AQ6">
+        <v>48.26815642458101</v>
+      </c>
+      <c r="AR6">
+        <v>52.29050279329609</v>
+      </c>
+      <c r="AS6">
+        <v>118.659217877095</v>
+      </c>
+      <c r="AT6">
+        <v>58.32402234636872</v>
+      </c>
+      <c r="AU6">
         <v>54.30167597765363</v>
       </c>
-      <c r="AR6">
+      <c r="AV6">
+        <v>49.27374301675978</v>
+      </c>
+      <c r="AW6">
+        <v>153.854748603352</v>
+      </c>
+      <c r="AX6">
+        <v>143.7988826815643</v>
+      </c>
+      <c r="AY6">
+        <v>132.7374301675978</v>
+      </c>
+      <c r="AZ6">
+        <v>113.6312849162011</v>
+      </c>
+      <c r="BA6">
+        <v>146.8156424581006</v>
+      </c>
+      <c r="BB6">
+        <v>130.7262569832402</v>
+      </c>
+      <c r="BC6">
+        <v>89.49720670391062</v>
+      </c>
+      <c r="BD6">
+        <v>85.47486033519553</v>
+      </c>
+      <c r="BE6">
+        <v>102.5698324022346</v>
+      </c>
+      <c r="BF6">
+        <v>105.586592178771</v>
+      </c>
+      <c r="BG6">
+        <v>85.47486033519553</v>
+      </c>
+      <c r="BH6">
+        <v>87.48603351955308</v>
+      </c>
+      <c r="BI6">
+        <v>82.45810055865923</v>
+      </c>
+      <c r="BJ6">
+        <v>87.48603351955308</v>
+      </c>
+      <c r="BK6">
+        <v>123.6871508379888</v>
+      </c>
+      <c r="BL6">
+        <v>128.7150837988827</v>
+      </c>
+      <c r="BM6">
+        <v>91.50837988826817</v>
+      </c>
+      <c r="BN6">
+        <v>87.48603351955308</v>
+      </c>
+      <c r="BO6">
+        <v>109.608938547486</v>
+      </c>
+      <c r="BP6">
+        <v>80.44692737430168</v>
+      </c>
+      <c r="BQ6">
+        <v>79.44134078212291</v>
+      </c>
+      <c r="BR6">
+        <v>110.6145251396648</v>
+      </c>
+      <c r="BS6">
+        <v>62.3463687150838</v>
+      </c>
+      <c r="BT6">
+        <v>74.41340782122906</v>
+      </c>
+      <c r="BU6">
+        <v>62.3463687150838</v>
+      </c>
+      <c r="BV6">
+        <v>86.4804469273743</v>
+      </c>
+      <c r="BW6">
+        <v>66.36871508379889</v>
+      </c>
+      <c r="BX6">
+        <v>87.48603351955308</v>
+      </c>
+      <c r="BY6">
+        <v>178.9944134078212</v>
+      </c>
+      <c r="BZ6">
+        <v>62.3463687150838</v>
+      </c>
+      <c r="CA6">
+        <v>115.6424581005587</v>
+      </c>
+      <c r="CB6">
+        <v>54.30167597765363</v>
+      </c>
+      <c r="CC6">
+        <v>15.08379888268156</v>
+      </c>
+      <c r="CD6">
+        <v>22.12290502793296</v>
+      </c>
+      <c r="CE6">
+        <v>18.10055865921788</v>
+      </c>
+      <c r="CF6">
+        <v>11.06145251396648</v>
+      </c>
+      <c r="CG6">
+        <v>47.26256983240224</v>
+      </c>
+      <c r="CH6">
+        <v>109.608938547486</v>
+      </c>
+      <c r="CI6">
+        <v>166.927374301676</v>
+      </c>
+      <c r="CK6">
+        <v>13.07262569832402</v>
+      </c>
+      <c r="CL6">
+        <v>18.10055865921788</v>
+      </c>
+      <c r="CM6">
+        <v>33.18435754189944</v>
+      </c>
+      <c r="CN6">
+        <v>4.022346368715084</v>
+      </c>
+      <c r="CO6">
+        <v>72.40223463687151</v>
+      </c>
+      <c r="CP6">
+        <v>178.9944134078212</v>
+      </c>
+      <c r="CQ6">
+        <v>2.011173184357542</v>
+      </c>
+      <c r="CR6">
+        <v>162.9050279329609</v>
+      </c>
+      <c r="CS6">
         <v>42.23463687150839</v>
       </c>
-      <c r="AS6">
-        <v>48.26815642458101</v>
-      </c>
-      <c r="AT6">
-        <v>18.10055865921788</v>
-      </c>
-      <c r="AU6">
-        <v>39.21787709497207</v>
-      </c>
-      <c r="AX6">
-        <v>29.16201117318436</v>
-      </c>
-      <c r="AZ6">
-        <v>82.45810055865923</v>
-      </c>
-      <c r="BB6">
-        <v>67.37430167597766</v>
-      </c>
-      <c r="BE6">
-        <v>72.40223463687151</v>
-      </c>
-      <c r="BI6">
-        <v>66.36871508379889</v>
-      </c>
-      <c r="BJ6">
-        <v>89.49720670391062</v>
-      </c>
-      <c r="BK6">
-        <v>69.38547486033519</v>
-      </c>
-      <c r="BP6">
-        <v>104.5810055865922</v>
-      </c>
-      <c r="BR6">
-        <v>81.45251396648045</v>
-      </c>
-      <c r="BS6">
-        <v>110.6145251396648</v>
-      </c>
-      <c r="BU6">
-        <v>61.34078212290503</v>
-      </c>
-      <c r="BV6">
-        <v>138.7709497206704</v>
-      </c>
-      <c r="BZ6">
-        <v>154.8603351955307</v>
-      </c>
-      <c r="CA6">
-        <v>50.27932960893855</v>
-      </c>
-      <c r="CC6">
-        <v>169.9441340782123</v>
-      </c>
-      <c r="CF6">
-        <v>177.9888268156424</v>
-      </c>
-      <c r="CG6">
-        <v>165.9217877094972</v>
-      </c>
-      <c r="CH6">
-        <v>122.6815642458101</v>
-      </c>
-      <c r="CK6">
-        <v>17.09497206703911</v>
-      </c>
-      <c r="CN6">
-        <v>11.06145251396648</v>
-      </c>
-      <c r="CP6">
-        <v>166.927374301676</v>
-      </c>
-      <c r="CR6">
-        <v>137.7653631284916</v>
-      </c>
-      <c r="CS6">
-        <v>162.9050279329609</v>
+      <c r="CT6">
+        <v>63.35195530726257</v>
+      </c>
+      <c r="CU6">
+        <v>151.8435754189944</v>
+      </c>
+      <c r="CV6">
+        <v>167.9329608938548</v>
       </c>
     </row>
-    <row r="7" spans="1:97">
+    <row r="7" spans="1:101">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
         <v>170.9497206703911</v>
       </c>
+      <c r="C7">
+        <v>64.35754189944134</v>
+      </c>
+      <c r="D7">
+        <v>60.33519553072626</v>
+      </c>
       <c r="E7">
+        <v>130.7262569832402</v>
+      </c>
+      <c r="F7">
         <v>142.7932960893855</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>147.8212290502793</v>
       </c>
-      <c r="H7">
+      <c r="I7">
+        <v>144.804469273743</v>
+      </c>
+      <c r="J7">
         <v>28.15642458100559</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>164.9162011173185</v>
       </c>
-      <c r="K7">
-        <v>159.8882681564246</v>
+      <c r="L7">
+        <v>66.36871508379889</v>
       </c>
       <c r="M7">
         <v>153.854748603352</v>
       </c>
       <c r="N7">
+        <v>159.8882681564246</v>
+      </c>
+      <c r="O7">
+        <v>62.3463687150838</v>
+      </c>
+      <c r="P7">
         <v>14.07821229050279</v>
       </c>
-      <c r="O7">
+      <c r="Q7">
         <v>154.8603351955307</v>
       </c>
-      <c r="P7">
+      <c r="R7">
         <v>143.7988826815643</v>
       </c>
       <c r="S7">
-        <v>152.8491620111732</v>
+        <v>150.8379888268157</v>
+      </c>
+      <c r="T7">
+        <v>146.8156424581006</v>
+      </c>
+      <c r="U7">
+        <v>69.38547486033519</v>
+      </c>
+      <c r="V7">
+        <v>92.51396648044692</v>
       </c>
       <c r="W7">
         <v>47.26256983240224</v>
       </c>
+      <c r="X7">
+        <v>42.23463687150839</v>
+      </c>
       <c r="Y7">
         <v>2.011173184357542</v>
       </c>
       <c r="Z7">
         <v>29.16201117318436</v>
       </c>
+      <c r="AA7">
+        <v>149.8324022346369</v>
+      </c>
       <c r="AB7">
-        <v>41.22905027932961</v>
+        <v>50.27932960893855</v>
+      </c>
+      <c r="AC7">
+        <v>109.608938547486</v>
+      </c>
+      <c r="AD7">
+        <v>161.8994413407821</v>
+      </c>
+      <c r="AE7">
+        <v>13.07262569832402</v>
+      </c>
+      <c r="AF7">
+        <v>177.9888268156424</v>
+      </c>
+      <c r="AG7">
+        <v>140.7821229050279</v>
+      </c>
+      <c r="AH7">
+        <v>2.011173184357542</v>
+      </c>
+      <c r="AI7">
+        <v>18.10055865921788</v>
+      </c>
+      <c r="AJ7">
+        <v>52.29050279329609</v>
       </c>
       <c r="AK7">
+        <v>147.8212290502793</v>
+      </c>
+      <c r="AL7">
+        <v>140.7821229050279</v>
+      </c>
+      <c r="AM7">
+        <v>118.659217877095</v>
+      </c>
+      <c r="AN7">
+        <v>113.6312849162011</v>
+      </c>
+      <c r="AO7">
+        <v>132.7374301675978</v>
+      </c>
+      <c r="AP7">
+        <v>166.927374301676</v>
+      </c>
+      <c r="AQ7">
+        <v>44.24581005586592</v>
+      </c>
+      <c r="AR7">
         <v>43.24022346368715</v>
       </c>
-      <c r="AQ7">
+      <c r="AS7">
+        <v>139.7765363128491</v>
+      </c>
+      <c r="AT7">
+        <v>57.31843575418995</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>40.22346368715084</v>
+      </c>
+      <c r="AW7">
+        <v>146.8156424581006</v>
+      </c>
+      <c r="AX7">
+        <v>138.7709497206704</v>
+      </c>
+      <c r="AY7">
+        <v>135.7541899441341</v>
+      </c>
+      <c r="AZ7">
+        <v>123.6871508379888</v>
+      </c>
+      <c r="BA7">
+        <v>152.8491620111732</v>
+      </c>
+      <c r="BB7">
+        <v>101.5642458100559</v>
+      </c>
+      <c r="BC7">
+        <v>96.53631284916202</v>
+      </c>
+      <c r="BD7">
+        <v>91.50837988826817</v>
+      </c>
+      <c r="BE7">
+        <v>120.6703910614525</v>
+      </c>
+      <c r="BF7">
+        <v>141.7877094972067</v>
+      </c>
+      <c r="BG7">
+        <v>119.6648044692738</v>
+      </c>
+      <c r="BH7">
+        <v>133.7430167597765</v>
+      </c>
+      <c r="BI7">
+        <v>94.52513966480448</v>
+      </c>
+      <c r="BJ7">
+        <v>93.5195530726257</v>
+      </c>
+      <c r="BK7">
+        <v>140.7821229050279</v>
+      </c>
+      <c r="BL7">
+        <v>130.7262569832402</v>
+      </c>
+      <c r="BM7">
+        <v>100.5586592178771</v>
+      </c>
+      <c r="BN7">
+        <v>98.54748603351956</v>
+      </c>
+      <c r="BO7">
+        <v>114.6368715083799</v>
+      </c>
+      <c r="BP7">
+        <v>142.7932960893855</v>
+      </c>
+      <c r="BQ7">
+        <v>87.48603351955308</v>
+      </c>
+      <c r="BR7">
+        <v>119.6648044692738</v>
+      </c>
+      <c r="BT7">
+        <v>80.44692737430168</v>
+      </c>
+      <c r="BU7">
+        <v>73.40782122905028</v>
+      </c>
+      <c r="BV7">
+        <v>98.54748603351956</v>
+      </c>
+      <c r="BW7">
+        <v>82.45810055865923</v>
+      </c>
+      <c r="BX7">
+        <v>91.50837988826817</v>
+      </c>
+      <c r="BY7">
+        <v>162.9050279329609</v>
+      </c>
+      <c r="BZ7">
+        <v>69.38547486033519</v>
+      </c>
+      <c r="CA7">
+        <v>129.7206703910614</v>
+      </c>
+      <c r="CB7">
+        <v>49.27374301675978</v>
+      </c>
+      <c r="CC7">
+        <v>39.21787709497207</v>
+      </c>
+      <c r="CD7">
+        <v>27.15083798882681</v>
+      </c>
+      <c r="CE7">
+        <v>33.18435754189944</v>
+      </c>
+      <c r="CF7">
+        <v>13.07262569832402</v>
+      </c>
+      <c r="CG7">
+        <v>53.29608938547487</v>
+      </c>
+      <c r="CH7">
+        <v>109.608938547486</v>
+      </c>
+      <c r="CI7">
+        <v>173.9664804469274</v>
+      </c>
+      <c r="CK7">
+        <v>13.07262569832402</v>
+      </c>
+      <c r="CL7">
+        <v>50.27932960893855</v>
+      </c>
+      <c r="CM7">
         <v>47.26256983240224</v>
       </c>
-      <c r="AR7">
-        <v>35.19553072625698</v>
-      </c>
-      <c r="AS7">
-        <v>37.20670391061453</v>
-      </c>
-      <c r="AT7">
-        <v>161.8994413407821</v>
-      </c>
-      <c r="AU7">
-        <v>177.9888268156424</v>
-      </c>
-      <c r="AX7">
-        <v>18.10055865921788</v>
-      </c>
-      <c r="BB7">
+      <c r="CN7">
+        <v>28.15642458100559</v>
+      </c>
+      <c r="CO7">
         <v>65.36312849162012</v>
       </c>
-      <c r="BC7">
-        <v>69.38547486033519</v>
-      </c>
-      <c r="BI7">
-        <v>147.8212290502793</v>
-      </c>
-      <c r="BJ7">
-        <v>96.53631284916202</v>
-      </c>
-      <c r="BK7">
-        <v>69.38547486033519</v>
-      </c>
-      <c r="BP7">
-        <v>106.5921787709497</v>
-      </c>
-      <c r="BR7">
-        <v>98.54748603351956</v>
-      </c>
-      <c r="BS7">
-        <v>121.6759776536313</v>
-      </c>
-      <c r="BU7">
-        <v>71.39664804469274</v>
-      </c>
-      <c r="BV7">
-        <v>147.8212290502793</v>
-      </c>
-      <c r="CF7">
-        <v>16.08938547486034</v>
-      </c>
-      <c r="CG7">
-        <v>163.9106145251397</v>
-      </c>
-      <c r="CH7">
-        <v>123.6871508379888</v>
+      <c r="CP7">
+        <v>6.033519553072626</v>
+      </c>
+      <c r="CQ7">
+        <v>10.05586592178771</v>
+      </c>
+      <c r="CR7">
+        <v>173.9664804469274</v>
+      </c>
+      <c r="CS7">
+        <v>56.31284916201118</v>
+      </c>
+      <c r="CT7">
+        <v>57.31843575418995</v>
+      </c>
+      <c r="CU7">
+        <v>3.016759776536313</v>
+      </c>
+      <c r="CV7">
+        <v>171.9553072625698</v>
       </c>
     </row>
   </sheetData>
